--- a/biology/Zoologie/Chernetidae/Chernetidae.xlsx
+++ b/biology/Zoologie/Chernetidae/Chernetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chernetidae sont une famille de pseudoscorpions. 
 Elle comporte plus de 700 espèces dans 119 genres actuels.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Océanie, en Asie, en Afrique et en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Océanie, en Asie, en Afrique et en Europe.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Chernetinae Menge, 1855
 Chernetini Menge, 1855
 Acanthicochernes Beier, 1964
@@ -674,8 +690,8 @@
 Balgachernes Harvey, 2018
 Tenebriochernes Bedoya-Roqueme &amp; Torres, 2019
 Sinochernes Gao &amp; Zhang 2012
-Le genre Mayachernes a été placé en synonymie avec Byrsochernes par Judson en 2016[2].
-Le genre Troglochernes a été placé en synonymie avec Austrochernes par Harvey en 2018[3].
+Le genre Mayachernes a été placé en synonymie avec Byrsochernes par Judson en 2016.
+Le genre Troglochernes a été placé en synonymie avec Austrochernes par Harvey en 2018.
 </t>
         </is>
       </c>
@@ -704,7 +720,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Menge en 1855.
 </t>
@@ -735,7 +753,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Menge, 1855 : « Über die Scheerenspinnen, Chernetidae. » Neueste Schriften der Naturforschenden Gesellschaft, vol. 5, no 2, p. 1-43.</t>
         </is>
